--- a/extracted_excel/Kericho_gendered_enterprise.xlsx
+++ b/extracted_excel/Kericho_gendered_enterprise.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAAA_Data\GENDER\extracted_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D863CB-4514-400C-A7D8-70C29C3D6A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Theme</t>
   </si>
@@ -34,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Kericho</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -148,10 +136,7 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
-    <t>The enterprise selection process was designed to be inclusive and participatory</t>
+    <t>-pick from the answer above The enterprise selection process was designed to be inclusive and participatory 1. Open community meetings (barazas) were held across different wards to gather input from diverse groups. Targeted focus group discussions were conducted . These groups offered insights into labour availability, traditional practices, access to markets,</t>
   </si>
   <si>
     <t>Gender Dynamics in Crop Enterprises- Both men and women are actively involved in the cultivation of high-value crops such as coffee and maize, due to their significant economic returns. However, coffee has seen a notable rise in women-led involvement, especially through initiatives such as Women in Coffee, which empower women to take ownership and leadership roles within the value chain. Shifts in Traditional Roles- Crops like sweet potatoes, traditionally associated with women and subsistence farming, are increasingly being grown for commercial purposes, with both genders participating. Women are also playing a growing role in poultry farming, contributing to both household nutrition and income. Gendered Labor in Value Chains- In the tea value chain, women are predominant, especially in labor-intensive tasks like tea picking. Across the entire value chain—from production to processing—women play a critical role, although ownership and decision-making still tend to favor men in some areas. There is an emerging trend where youth are engaging more in enterprise-related services, particularly in transportation, such as ferrying produce and inputs. Changing Gender Roles in Livestock Enterprises- In the dairy sector, approximately 70% of registered milk suppliers are now women, a significant change from previous years when the sector was male-dominated. This shift is largely attributed to increasing women’s empowerment and targeted support initiatives. In the tea sector, some families are now registering farm numbers under women’s names, and there’s a growing effort to involve youth in enterprise ownership and management..</t>
@@ -163,7 +148,7 @@
     <t>Availability at Home- Women often spend more time at or near the household, making it easier for them to manage farm-based and subsistence enterprises, especially those that do not require travel or long hours away from home. Nature of the Enterprises- Many of the enterprises where women are dominant tend to have low financial returns or are viewed as subsistence-oriented, which historically have been assigned to women. These include crops like sorghum or sweet potatoes and activities like chicken rearing. Less Labour Intensity and Type of Work- Tasks involving bending, or lighter tools are culturally perceived as more suited to women Cultural beliefs- For instance, poultry rearing is traditionally viewed as a woman’s responsibility. This socialization supports women’s continued involvement in these sectors. Women often have specialized skills in processing and handling certain crops and products—such as fermenting sorghum or preparing local poultry products—making them key actors in adding value at the household and community level. Some of these enterprises require minimal capital or land, making them more accessible to women, especially in contexts where women may have limited access to resources like credit, equipment, or land ownership.</t>
   </si>
   <si>
-    <t>Enterprise Gender role in value chain why Coffee women planting, weeding, picking men-holing, disease control , transportation to the factory, weeding youth-transportation, picking availability, there are many(work jointly), groups make them access jobs easily , they have merry go rounds hence need for the tasks Exposure to chemicals is risky for child bearing women, men are strong -labour most youths are boda boda riders, they considered as dignified</t>
+    <t>Enterprise Gender role in value chain why Coffee women planting, weeding, picking men-holing, disease control , transportation to the factory, weeding youth-transportation, picking availability, there are many(work jointly), groups make them access jobs easily , they have merry go rounds hence need for the tasks  Exposure to chemicals is risky for child bearing women, men are strong -labour  most youths are boda boda riders, they considered as dignified Tea women planting, weeding, picking men-holing, disease control , transportation to the factory, weeding youth-transportation, picking availability, there are many(work jointly), groups make them access jobs easily , they have merry go rounds hence need for the tasks  Exposure to chemicals is risky for child bearing women, men are strong -labour  most youths are Boda Boda riders, they considered as dignified Maize Women-land prep, planting, weeding,harvesting,posho mill Men-land preparation, management using chemicals , weeding, harvesting, storage and threshing, marketing, Youth-threshing -mechanised, trading -brokers cultural -pick from above -labour intensive &amp; strength -pick from above Dairy farming women-milking, feeding, watering, cleaning the sheds, selling of the produce depends on the volumes, value addition,  men-fooder growing and feeding, conservation, disease control, culling, selling large quantities of milk, selling the cows-calf, Servicing, breeding -labour needs -skilled in milking -culturally-women know how to milk  they are the decision makers fodder- masculine strength required More knowledge on livestock production Poultry Women-feeding, collecting eggs, brooding, Men-hatching , house construction, marketing, disease control cultural and availability at home  knowledge on production</t>
   </si>
   <si>
     <t>education-women are less educated , and leadership ;positions are taken by the retired personnel education affecting policies-there are policies but due to the society being ignorant makes out on the opportunity reproductive duties limits the opportunity for women to engage in this leadership positions</t>
@@ -178,13 +163,13 @@
     <t>Women face several challenges in utilizing digital platforms and ICT tools for enterprise development. Limited access to reliable internet connectivity remains a major barrier, particularly in remote rural areas. Additionally, many women lack the necessary digital devices, such as smartphones or computers, which restricts their ability to engage with online resources and platforms. Even when devices are available, a significant number of women have limited digital literacy, making it difficult to navigate applications and tools that could support their agricultural or business activities. To overcome these challenges, some women are participating in group training, leveraging community-based support systems, or relying on assistance from tech-savvy family members and extension officers to access and use digital tools effectively.</t>
   </si>
   <si>
-    <t>a. land, b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services c. Access to training and knowledge/extension d. Access to information as market, weather e. Access to technology eg ICT, digital gadgets, internet, digital literacy Men Women Youth Elderly Land Ownership Limited access Low ownership Traditional owners Finance- Access to credit, banks Rely on informal groups Digital loans SACCOs Training and knowledge/extension Extension services Limited access NGO trainings Low participation Access to information as market, weather Radios, networks Community groups Digital platforms Local networks Access to technology eg ICT, digital gadgets, internet, digital literacy Smartphones, ICT Limited literacy High adoption Low use</t>
+    <t>a. land, b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services c. Access to training and knowledge/extension d. Access to information as market, weather e. Access to technology eg ICT, digital gadgets, internet, digital literacy  Men Women Youth Elderly Land Ownership Limited access Low ownership Traditional owners Finance- Access to credit, banks Rely on informal groups Digital loans SACCOs Training and knowledge/extension Extension services Limited access NGO trainings Low participation Access to information as market, weather Radios, networks Community groups Digital platforms Local networks Access to technology eg ICT, digital gadgets, internet, digital literacy Smartphones, ICT Limited literacy High adoption Low use</t>
   </si>
   <si>
     <t>Enterprise demand (1-10) Tea 8 Coffee 8 dairy 9 Maize 9 Poultry 7</t>
   </si>
   <si>
-    <t>Enterprise Opportunity women can tap in Value chain Opportunity women can tap in Value Addition Tea Companies can give women in teams a contract to pick tea-they have access to finances from this hawking /brokers Happens at the factory-women in the factories are not many , development oil production, shoe polish, Coffee marketing , production-for those with portions Roasting, packaging and marketing, briquettes, manure, Dairy Marketing , Production Fermentation of milk (Mursik), bottling the mursik and selling in the supermarkets,, yogurt, sale of manure, biogas, cream and ghee-on small scale Maize production, marketing milling, packaging - through milling companies majorly, do this, roasted and boiled maize, Poultry marketing , production, selling live chicken slaughtering, selling chicken parts -can be sold in the streets , feed formulation, boiled eggs,</t>
+    <t>Enterprise Opportunity women can tap in Value chain Opportunity women can tap in Value Addition Tea Companies can give women in teams a contract to pick tea-they have access to finances from this  hawking /brokers Happens at the factory-women in the factories are not many , development oil production, shoe polish, Coffee marketing , production-for those with portions Roasting, packaging and marketing, briquettes, manure, Dairy Marketing , Production Fermentation of milk (Mursik), bottling the mursik and selling in the supermarkets,, yogurt, sale of manure, biogas, cream and ghee-on small scale Maize production, marketing milling, packaging - through milling companies majorly, do this, roasted and boiled maize, Poultry marketing , production, selling live chicken slaughtering, selling chicken parts -can be sold in the streets , feed formulation, boiled eggs,</t>
   </si>
   <si>
     <t>Enterprise profitability levels &amp; economic benefit Tea economic empowerment , access loans, source of income , household, Tea brokers/hawking-need for quick money Coffee economic empowerment , access loans, source of income , household, Tea brokers/hawking-need for quick money Dairy economic empowerment , access loans, source of income , household, Maize economic empowerment , access loans, source of income , household, Poultry economic empowerment , access loans, source of income , household,</t>
@@ -217,8 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,14 +266,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -335,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,27 +344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,24 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,17 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="37" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,414 +570,300 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
